--- a/data/trans_orig/P52_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P52_2-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>32800</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23362</v>
+        <v>23465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42372</v>
+        <v>43051</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3549757988860845</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.252833650873578</v>
+        <v>0.2539547461985799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4585766176681328</v>
+        <v>0.4659154277328601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -763,19 +763,19 @@
         <v>19125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12555</v>
+        <v>12890</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25034</v>
+        <v>25504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5138289798322938</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3373194865667954</v>
+        <v>0.3462966638190623</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6725843402302321</v>
+        <v>0.6852097297729984</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -784,19 +784,19 @@
         <v>51925</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41218</v>
+        <v>40133</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63657</v>
+        <v>63584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4005907822653251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3179871296306028</v>
+        <v>0.3096171991752287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4910987238238925</v>
+        <v>0.4905351301029009</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5722</v>
+        <v>5875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01149062954972574</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06192424363005866</v>
+        <v>0.0635787912648369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6679</v>
+        <v>5648</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05066297016509714</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1794463913249018</v>
+        <v>0.1517403781533739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -855,19 +855,19 @@
         <v>2947</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7979</v>
+        <v>8625</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02273903927909199</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007094847045748924</v>
+        <v>0.00710804913123218</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06155977417840468</v>
+        <v>0.06654265086775754</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>5306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1561</v>
+        <v>1200</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14728</v>
+        <v>13634</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05741906261700126</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01689300128260243</v>
+        <v>0.01298901733320143</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1593989340237809</v>
+        <v>0.1475579419028827</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>5306</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1184</v>
+        <v>1768</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13729</v>
+        <v>14432</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04093107307014423</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009137113385501617</v>
+        <v>0.01364239838510743</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1059185267021737</v>
+        <v>0.1113386442587408</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>53233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43009</v>
+        <v>43130</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62731</v>
+        <v>62429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5761145089471885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4654605913413302</v>
+        <v>0.4667801931921541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6789086270437895</v>
+        <v>0.675640112883543</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -968,19 +968,19 @@
         <v>16210</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10685</v>
+        <v>10205</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23076</v>
+        <v>22885</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4355080500026091</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2870574955475741</v>
+        <v>0.274186073678522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6199851479068662</v>
+        <v>0.6148293373370791</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -989,19 +989,19 @@
         <v>69443</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56741</v>
+        <v>58347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80182</v>
+        <v>80581</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5357391053854387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4377473332513327</v>
+        <v>0.4501354257907295</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6185882335714313</v>
+        <v>0.6216642670492364</v>
       </c>
     </row>
     <row r="8">
@@ -1093,19 +1093,19 @@
         <v>78792</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>66071</v>
+        <v>64130</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>91852</v>
+        <v>92386</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.479730044542833</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4022804369397956</v>
+        <v>0.3904626095174173</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5592469231130667</v>
+        <v>0.5625015336950222</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -1114,19 +1114,19 @@
         <v>26813</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19770</v>
+        <v>20838</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33129</v>
+        <v>33330</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5980809213619843</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.440986606257919</v>
+        <v>0.4648199038755534</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7389795197627372</v>
+        <v>0.7434522703967874</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>95</v>
@@ -1135,19 +1135,19 @@
         <v>105604</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>91500</v>
+        <v>90070</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>122322</v>
+        <v>121555</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5051078801987916</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4376480592001999</v>
+        <v>0.4308043247328295</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5850702698313082</v>
+        <v>0.5813997645032467</v>
       </c>
     </row>
     <row r="10">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4886</v>
+        <v>4977</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005866425062896509</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02974594566404485</v>
+        <v>0.03030138118762698</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7811</v>
+        <v>7793</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05125124450591331</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1742420703243823</v>
+        <v>0.1738257945165026</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1206,19 +1206,19 @@
         <v>3261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9063</v>
+        <v>9772</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01559823711241956</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004642521470726825</v>
+        <v>0.00458745467824177</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04334773129091015</v>
+        <v>0.04674098568531667</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>3661</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10265</v>
+        <v>11115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02229200155394409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006238348542105722</v>
+        <v>0.006308074702504722</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06249883561940029</v>
+        <v>0.06767279777334646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7306</v>
+        <v>6362</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04580512038363776</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1629784526953257</v>
+        <v>0.1419047790675015</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1277,19 +1277,19 @@
         <v>5715</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2066</v>
+        <v>2078</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12668</v>
+        <v>12596</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02733389124210256</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009880124870001242</v>
+        <v>0.009939806978176913</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06059212236830481</v>
+        <v>0.06024702841960342</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>80825</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68898</v>
+        <v>66931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>94618</v>
+        <v>95682</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4921115288403263</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4194877134217965</v>
+        <v>0.4075147973644329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5760865487837764</v>
+        <v>0.5825660057802275</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -1327,19 +1327,19 @@
         <v>13667</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8210</v>
+        <v>8360</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20418</v>
+        <v>20283</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3048627137484646</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1831265758007689</v>
+        <v>0.1864740012471995</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4554513840602465</v>
+        <v>0.4524275244991654</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>84</v>
@@ -1348,19 +1348,19 @@
         <v>94493</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79416</v>
+        <v>78887</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>109537</v>
+        <v>109784</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4519599914466862</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3798498689070287</v>
+        <v>0.3773182736072859</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5239184676520058</v>
+        <v>0.5250974658301972</v>
       </c>
     </row>
     <row r="13">
@@ -1452,19 +1452,19 @@
         <v>65435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52741</v>
+        <v>54097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78249</v>
+        <v>77993</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4937943861889766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.398001663633327</v>
+        <v>0.4082305596064618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5904888431308001</v>
+        <v>0.5885591971024029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1473,19 +1473,19 @@
         <v>23228</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16246</v>
+        <v>15832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30394</v>
+        <v>29787</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5315026045620443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3717480326666677</v>
+        <v>0.362270860783794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.695477162427229</v>
+        <v>0.6815994229942227</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>81</v>
@@ -1494,19 +1494,19 @@
         <v>88663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75914</v>
+        <v>74773</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>103130</v>
+        <v>103178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5031460804239771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4308002897753064</v>
+        <v>0.4243221910953959</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.585244021253976</v>
+        <v>0.5855172126037601</v>
       </c>
     </row>
     <row r="15">
@@ -1523,19 +1523,19 @@
         <v>4777</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1863</v>
+        <v>1825</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9788</v>
+        <v>10535</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03604802563565395</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01405590959767488</v>
+        <v>0.01377044543761861</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07386078351567683</v>
+        <v>0.07949692665425898</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1557,19 +1557,19 @@
         <v>4777</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1826</v>
+        <v>1843</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10420</v>
+        <v>9872</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02710806166851855</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01035971112348868</v>
+        <v>0.01045637305352178</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05913095818105467</v>
+        <v>0.05602255711968173</v>
       </c>
     </row>
     <row r="16">
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5799</v>
+        <v>5639</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007422660759487544</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04375951804118974</v>
+        <v>0.04255233671032703</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5929</v>
+        <v>5630</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02708545200693232</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1356626277009</v>
+        <v>0.1288187630123709</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6602</v>
+        <v>7597</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01229906223074034</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03746267918533746</v>
+        <v>0.04311198745116157</v>
       </c>
     </row>
     <row r="17">
@@ -1657,19 +1657,19 @@
         <v>61319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49054</v>
+        <v>49364</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75024</v>
+        <v>73123</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.462734927415882</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3701780482164033</v>
+        <v>0.3725162245179913</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5661566757068752</v>
+        <v>0.5518110930647512</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1678,19 +1678,19 @@
         <v>19291</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12208</v>
+        <v>12954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26276</v>
+        <v>26822</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4414119434310234</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2793573290884221</v>
+        <v>0.2964166499761316</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6012527536063156</v>
+        <v>0.6137426239718327</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -1699,19 +1699,19 @@
         <v>80610</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>66998</v>
+        <v>66086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94625</v>
+        <v>94807</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4574467956767639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3802037666268572</v>
+        <v>0.375025190672186</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5369777826688641</v>
+        <v>0.5380131303801378</v>
       </c>
     </row>
     <row r="18">
@@ -1803,19 +1803,19 @@
         <v>59417</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48402</v>
+        <v>47734</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71669</v>
+        <v>71447</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.449787582643246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3664004513324071</v>
+        <v>0.3613478096058554</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5425350924684407</v>
+        <v>0.5408534500762104</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1824,19 +1824,19 @@
         <v>36261</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28347</v>
+        <v>28107</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43989</v>
+        <v>43288</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.598214974600316</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4676590775956228</v>
+        <v>0.4636920014908398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7257192288080007</v>
+        <v>0.714144498494697</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -1845,19 +1845,19 @@
         <v>95678</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>81419</v>
+        <v>81933</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110812</v>
+        <v>110471</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4964723918189133</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4224842083986343</v>
+        <v>0.4251476250206492</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5750005755693697</v>
+        <v>0.573232780502712</v>
       </c>
     </row>
     <row r="20">
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6054</v>
+        <v>6955</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01488851618879172</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04583067514716208</v>
+        <v>0.05264807594131207</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6588</v>
+        <v>6472</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03484057209422895</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.108682587063589</v>
+        <v>0.1067785226747396</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1916,19 +1916,19 @@
         <v>4079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1025</v>
+        <v>1104</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10103</v>
+        <v>9551</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0211640284801954</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005316120543571617</v>
+        <v>0.005730657903421015</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05242662068980697</v>
+        <v>0.04955985628281402</v>
       </c>
     </row>
     <row r="21">
@@ -1948,16 +1948,16 @@
         <v>2798</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15007</v>
+        <v>13834</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05051329191689279</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02118143662533867</v>
+        <v>0.0211775105451281</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1135996673557223</v>
+        <v>0.1047227354053951</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1966,19 +1966,19 @@
         <v>4752</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11444</v>
+        <v>11900</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07838930229530784</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01625267187669652</v>
+        <v>0.0165480201342096</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1888016391555399</v>
+        <v>0.1963203554935059</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -1987,19 +1987,19 @@
         <v>11424</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5680</v>
+        <v>5884</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20157</v>
+        <v>20700</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05928112249005028</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02947487270294077</v>
+        <v>0.03053285079014099</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1045937612943516</v>
+        <v>0.107411615313931</v>
       </c>
     </row>
     <row r="22">
@@ -2016,19 +2016,19 @@
         <v>64044</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52645</v>
+        <v>51901</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75571</v>
+        <v>75118</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4848106092510695</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3985209699154289</v>
+        <v>0.3928917880707665</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5720721855631544</v>
+        <v>0.5686368779345594</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2037,19 +2037,19 @@
         <v>17491</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10991</v>
+        <v>11232</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25207</v>
+        <v>25195</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2885551510101472</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1813197441952388</v>
+        <v>0.1853051976341017</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4158623407197374</v>
+        <v>0.4156602133244722</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>82</v>
@@ -2058,19 +2058,19 @@
         <v>81535</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67220</v>
+        <v>68062</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95555</v>
+        <v>96241</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.423082457210841</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3488044651293246</v>
+        <v>0.3531716314056563</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4958321670343196</v>
+        <v>0.4993929127428687</v>
       </c>
     </row>
     <row r="23">
@@ -2162,19 +2162,19 @@
         <v>236444</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>210713</v>
+        <v>212012</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>260553</v>
+        <v>259021</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4536028260553159</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4042390172855154</v>
+        <v>0.4067317171948515</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4998544087334719</v>
+        <v>0.4969152227171637</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>100</v>
@@ -2183,19 +2183,19 @@
         <v>105426</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>91442</v>
+        <v>90998</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>119146</v>
+        <v>119879</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5656859538855671</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4906519616421599</v>
+        <v>0.4882664780557959</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6392999507349663</v>
+        <v>0.6432352071205067</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>320</v>
@@ -2204,19 +2204,19 @@
         <v>341870</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>315874</v>
+        <v>313171</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>369396</v>
+        <v>370846</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4831223865246073</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4463847584877444</v>
+        <v>0.4425648622196814</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5220208644883696</v>
+        <v>0.5240695852800048</v>
       </c>
     </row>
     <row r="25">
@@ -2233,19 +2233,19 @@
         <v>8769</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3929</v>
+        <v>3993</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15655</v>
+        <v>16680</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01682264871890045</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007537823141747013</v>
+        <v>0.007659558849826262</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03003334289097333</v>
+        <v>0.03199974555868624</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2254,19 +2254,19 @@
         <v>6295</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2194</v>
+        <v>2623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12654</v>
+        <v>13763</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.033778328893069</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01177008400198287</v>
+        <v>0.0140716728608578</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06789742279267928</v>
+        <v>0.07384921069521141</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2275,19 +2275,19 @@
         <v>15064</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8774</v>
+        <v>9377</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24416</v>
+        <v>25136</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02128830056042804</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0123989486535146</v>
+        <v>0.01325117176090966</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03450389797839659</v>
+        <v>0.03552084164926464</v>
       </c>
     </row>
     <row r="26">
@@ -2304,19 +2304,19 @@
         <v>16623</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9517</v>
+        <v>9345</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27313</v>
+        <v>27972</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03189071146966756</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01825841524786595</v>
+        <v>0.0179278768220608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05239900613559977</v>
+        <v>0.05366253049038423</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2325,19 +2325,19 @@
         <v>7989</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3808</v>
+        <v>3908</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17462</v>
+        <v>17313</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04286518979561092</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02043121873590638</v>
+        <v>0.0209714599058085</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09369407367156479</v>
+        <v>0.09289471307502017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -2346,19 +2346,19 @@
         <v>24612</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15367</v>
+        <v>15441</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37605</v>
+        <v>38486</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03478108206186097</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02171597062887845</v>
+        <v>0.02182098236844061</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05314246426150339</v>
+        <v>0.05438803455465235</v>
       </c>
     </row>
     <row r="27">
@@ -2375,19 +2375,19 @@
         <v>259422</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>236094</v>
+        <v>235114</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>286211</v>
+        <v>283873</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4976838137561161</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4529313151490877</v>
+        <v>0.4510505203799392</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5490778103118851</v>
+        <v>0.54459126371636</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>63</v>
@@ -2396,19 +2396,19 @@
         <v>66659</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>54605</v>
+        <v>53058</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>80723</v>
+        <v>80847</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3576705274257529</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2929916387518068</v>
+        <v>0.2846914129338383</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4331374533100448</v>
+        <v>0.4338008496423515</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>304</v>
@@ -2417,19 +2417,19 @@
         <v>326080</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>298703</v>
+        <v>298018</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>353657</v>
+        <v>352100</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4608082308531037</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4221191049827813</v>
+        <v>0.4211509473526426</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4997794796577932</v>
+        <v>0.4975790333120256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,19 +2761,19 @@
         <v>31413</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22773</v>
+        <v>22451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40578</v>
+        <v>41285</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3224589153734887</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2337659726741127</v>
+        <v>0.2304555876991564</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4165313944880332</v>
+        <v>0.423795038084273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2782,19 +2782,19 @@
         <v>17841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11645</v>
+        <v>12520</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23130</v>
+        <v>23112</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5605945858486577</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3658832034840697</v>
+        <v>0.39339282907574</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7267704815100606</v>
+        <v>0.7262004120422804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -2803,19 +2803,19 @@
         <v>49255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38599</v>
+        <v>39654</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60536</v>
+        <v>62144</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3810990317075043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2986513024314153</v>
+        <v>0.3068119419401413</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4683879710157505</v>
+        <v>0.4808301972483585</v>
       </c>
     </row>
     <row r="5">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7749</v>
+        <v>7077</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0204424757989118</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07954771846218299</v>
+        <v>0.07264977531231538</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7095</v>
+        <v>6775</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01540858416641702</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05489248375266572</v>
+        <v>0.05241743195343022</v>
       </c>
     </row>
     <row r="6">
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7038</v>
+        <v>6136</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02012801819689927</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07224930897256507</v>
+        <v>0.06298403109493773</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5935</v>
+        <v>6501</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0151715607023786</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04591928593880212</v>
+        <v>0.05029668610958232</v>
       </c>
     </row>
     <row r="7">
@@ -2958,19 +2958,19 @@
         <v>62052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52470</v>
+        <v>52752</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70734</v>
+        <v>72026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6369705906307002</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5386039479467998</v>
+        <v>0.5414978910412572</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7260890027146254</v>
+        <v>0.7393450624553621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -2979,19 +2979,19 @@
         <v>13985</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8696</v>
+        <v>8714</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20181</v>
+        <v>19306</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4394054141513423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2732295184899393</v>
+        <v>0.2737995879577196</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6341167965159303</v>
+        <v>0.60660717092426</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -3000,19 +3000,19 @@
         <v>76037</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64855</v>
+        <v>63137</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86800</v>
+        <v>85852</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5883208234237001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5018052515197358</v>
+        <v>0.4885120864541249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6715997371789239</v>
+        <v>0.6642652365234474</v>
       </c>
     </row>
     <row r="8">
@@ -3104,19 +3104,19 @@
         <v>49250</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37123</v>
+        <v>37847</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>62776</v>
+        <v>63338</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2717189503897562</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2048130547510046</v>
+        <v>0.2088085727376724</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3463491648000264</v>
+        <v>0.3494472563790909</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -3125,19 +3125,19 @@
         <v>18804</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11607</v>
+        <v>11917</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26856</v>
+        <v>27120</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3029477604668225</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1869892942783534</v>
+        <v>0.1919908283111073</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4326659266422079</v>
+        <v>0.4369266748973604</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>62</v>
@@ -3146,19 +3146,19 @@
         <v>68054</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>54519</v>
+        <v>54367</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>82791</v>
+        <v>84182</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.279685343473657</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2240611539880962</v>
+        <v>0.2234342869630763</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3402503409962061</v>
+        <v>0.345966703784152</v>
       </c>
     </row>
     <row r="10">
@@ -3175,19 +3175,19 @@
         <v>9610</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4063</v>
+        <v>4378</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17905</v>
+        <v>16966</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05301759693188552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02241442742320632</v>
+        <v>0.02415190860331035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09878605689026772</v>
+        <v>0.09360366497468936</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3196,19 +3196,19 @@
         <v>3209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8564</v>
+        <v>8324</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05169986742457131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01531191966614055</v>
+        <v>0.01547043329309458</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1379762445587385</v>
+        <v>0.1341040029243382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3217,19 +3217,19 @@
         <v>12819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6338</v>
+        <v>6942</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23837</v>
+        <v>21675</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05268144735693809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02604859339121177</v>
+        <v>0.02853166682063595</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09796358910901512</v>
+        <v>0.08907817471394731</v>
       </c>
     </row>
     <row r="11">
@@ -3246,19 +3246,19 @@
         <v>4072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10269</v>
+        <v>10252</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02246790344799124</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005712628396819491</v>
+        <v>0.005626485763405385</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0566578683932184</v>
+        <v>0.05656388368118066</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5143</v>
+        <v>4640</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01494476692453777</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08285726441060512</v>
+        <v>0.07475974323877577</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -3288,19 +3288,19 @@
         <v>5000</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1946</v>
+        <v>1924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11420</v>
+        <v>11150</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02054876971789456</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007996603907372248</v>
+        <v>0.007908600185557049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04693310408091093</v>
+        <v>0.04582226773911931</v>
       </c>
     </row>
     <row r="12">
@@ -3317,19 +3317,19 @@
         <v>118320</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>104008</v>
+        <v>104536</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>131784</v>
+        <v>131401</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6527955492303671</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5738304084654944</v>
+        <v>0.5767425483559385</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7270758346224039</v>
+        <v>0.7249622598210652</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -3338,19 +3338,19 @@
         <v>39130</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30767</v>
+        <v>31058</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46795</v>
+        <v>46632</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6304076051840684</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4956822777684036</v>
+        <v>0.5003666486512337</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7538904894000518</v>
+        <v>0.7512664402356012</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>146</v>
@@ -3359,19 +3359,19 @@
         <v>157451</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>141974</v>
+        <v>139815</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>172817</v>
+        <v>171434</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6470844394515104</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5834787172485297</v>
+        <v>0.5746042137400973</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7102340982425996</v>
+        <v>0.7045502410645259</v>
       </c>
     </row>
     <row r="13">
@@ -3463,19 +3463,19 @@
         <v>33140</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22392</v>
+        <v>24046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44600</v>
+        <v>44797</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2059320069374885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1391410164005315</v>
+        <v>0.1494171311461712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2771436040705317</v>
+        <v>0.2783663038668684</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -3484,19 +3484,19 @@
         <v>15095</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9043</v>
+        <v>9188</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22400</v>
+        <v>22193</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.239384855819952</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1434102445493488</v>
+        <v>0.1457074959123865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3552165766537132</v>
+        <v>0.3519450935556518</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -3505,19 +3505,19 @@
         <v>48236</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36841</v>
+        <v>37838</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61979</v>
+        <v>62272</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2153499211744301</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1644780085458492</v>
+        <v>0.1689281249037849</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2767072759248685</v>
+        <v>0.2780141740267756</v>
       </c>
     </row>
     <row r="15">
@@ -3534,19 +3534,19 @@
         <v>3179</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9022</v>
+        <v>7876</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01975206747015411</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.006463036610061793</v>
+        <v>0.006387630941446254</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05606289451119419</v>
+        <v>0.04894184025495191</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4675</v>
+        <v>3793</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01490441624382133</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07413739814050685</v>
+        <v>0.06015715327105287</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -3576,19 +3576,19 @@
         <v>4119</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9970</v>
+        <v>9367</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01838731782923071</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004727593213670894</v>
+        <v>0.004700150978702447</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0445129388120211</v>
+        <v>0.04181851394515062</v>
       </c>
     </row>
     <row r="16">
@@ -3605,19 +3605,19 @@
         <v>5254</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2025</v>
+        <v>2078</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11561</v>
+        <v>12504</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03264624687950698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0125858148134823</v>
+        <v>0.01291026845873981</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07184097608270761</v>
+        <v>0.07770118378669835</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4201</v>
+        <v>5209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01662065693310912</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06661658788577675</v>
+        <v>0.08259764173671061</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3647,19 +3647,19 @@
         <v>6302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2105</v>
+        <v>2430</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13353</v>
+        <v>13273</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02813459430719984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009398549603793622</v>
+        <v>0.01084843305202468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05961525309407509</v>
+        <v>0.0592554627314338</v>
       </c>
     </row>
     <row r="17">
@@ -3676,19 +3676,19 @@
         <v>119356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107349</v>
+        <v>107646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>131088</v>
+        <v>129744</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7416696787128504</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.667055311287361</v>
+        <v>0.6689021278192957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8145710054624313</v>
+        <v>0.8062161430130991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -3697,19 +3697,19 @@
         <v>45976</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38432</v>
+        <v>39112</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52076</v>
+        <v>52151</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7290900710031175</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6094683945337194</v>
+        <v>0.6202463513678466</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8258372982531146</v>
+        <v>0.8270218724889101</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>152</v>
@@ -3718,19 +3718,19 @@
         <v>165332</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>150304</v>
+        <v>150892</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>177291</v>
+        <v>177840</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7381281666891394</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6710378133314641</v>
+        <v>0.6736617872210473</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7915185967088415</v>
+        <v>0.793972078581533</v>
       </c>
     </row>
     <row r="18">
@@ -3822,19 +3822,19 @@
         <v>64176</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52194</v>
+        <v>51550</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77628</v>
+        <v>77536</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3741781150305477</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3043166892470987</v>
+        <v>0.3005629634881491</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4526131959455975</v>
+        <v>0.4520734857416234</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -3843,19 +3843,19 @@
         <v>40799</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31673</v>
+        <v>31620</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49261</v>
+        <v>49987</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5038161170865617</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3911207104651902</v>
+        <v>0.3904712758396987</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6083168440959766</v>
+        <v>0.6172807335628175</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -3864,19 +3864,19 @@
         <v>104974</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89190</v>
+        <v>89469</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>121101</v>
+        <v>121244</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4157558368101397</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.353242547324419</v>
+        <v>0.3543454262817485</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4796278838990435</v>
+        <v>0.480192672826555</v>
       </c>
     </row>
     <row r="20">
@@ -3893,19 +3893,19 @@
         <v>9580</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4906</v>
+        <v>4158</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18520</v>
+        <v>16382</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05585798672840028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0286042573908861</v>
+        <v>0.02424048397797449</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1079843121906573</v>
+        <v>0.09551660031163731</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -3914,19 +3914,19 @@
         <v>5873</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2020</v>
+        <v>1983</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13049</v>
+        <v>12834</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07252654817074281</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02494207900350206</v>
+        <v>0.02449321723022752</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1611377653323991</v>
+        <v>0.1584875870175223</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -3935,19 +3935,19 @@
         <v>15453</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8990</v>
+        <v>8890</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25105</v>
+        <v>24676</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06120395626761227</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0356052975330753</v>
+        <v>0.03520857436956332</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09942783471351956</v>
+        <v>0.09772987064607561</v>
       </c>
     </row>
     <row r="21">
@@ -3964,19 +3964,19 @@
         <v>3749</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1054</v>
+        <v>1064</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10561</v>
+        <v>9781</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02186000761193822</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006144749503468632</v>
+        <v>0.0062031616069687</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06157669852358338</v>
+        <v>0.05702716647550574</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5409</v>
+        <v>4899</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01205710472389979</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06679860332851603</v>
+        <v>0.06049631620357467</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -4006,19 +4006,19 @@
         <v>4726</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1120</v>
+        <v>1149</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11664</v>
+        <v>12405</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01871600382873341</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004437512369975753</v>
+        <v>0.004551160318470101</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04619468761810876</v>
+        <v>0.04913137140041957</v>
       </c>
     </row>
     <row r="22">
@@ -4035,19 +4035,19 @@
         <v>94006</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81223</v>
+        <v>80673</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107397</v>
+        <v>107584</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5481038906291139</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4735739746468745</v>
+        <v>0.4703642172038466</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6261812490785937</v>
+        <v>0.6272739162298644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -4056,19 +4056,19 @@
         <v>33331</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24200</v>
+        <v>24454</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42159</v>
+        <v>42916</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4116002300187956</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2988420319309713</v>
+        <v>0.3019759155319368</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5206145762449894</v>
+        <v>0.5299613381098405</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -4077,19 +4077,19 @@
         <v>127337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>112763</v>
+        <v>110061</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>144630</v>
+        <v>142929</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5043242030935147</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.446605548351157</v>
+        <v>0.4359017419618178</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5728152821020098</v>
+        <v>0.5660768938921701</v>
       </c>
     </row>
     <row r="23">
@@ -4181,19 +4181,19 @@
         <v>177979</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>156033</v>
+        <v>157568</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>201450</v>
+        <v>202758</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2912388510612459</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2553270067643454</v>
+        <v>0.2578378081633693</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3296462014599373</v>
+        <v>0.3317864767582117</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>90</v>
@@ -4202,19 +4202,19 @@
         <v>92540</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>78650</v>
+        <v>78750</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>107412</v>
+        <v>109750</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3889281141517202</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3305529166898577</v>
+        <v>0.3309722551888302</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4514325191309559</v>
+        <v>0.4612604407631996</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>255</v>
@@ -4223,19 +4223,19 @@
         <v>270519</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>242610</v>
+        <v>243683</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>298240</v>
+        <v>299601</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3186151258598844</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2857447501239965</v>
+        <v>0.2870075392705072</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3512646526950308</v>
+        <v>0.3528682208629916</v>
       </c>
     </row>
     <row r="25">
@@ -4252,19 +4252,19 @@
         <v>24360</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15973</v>
+        <v>15578</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36268</v>
+        <v>35860</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03986181486282008</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02613780703477643</v>
+        <v>0.02549105218070838</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.059347590988165</v>
+        <v>0.05867994631603259</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -4273,19 +4273,19 @@
         <v>10022</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4956</v>
+        <v>4792</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18089</v>
+        <v>18339</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04212100615683986</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02083048315497127</v>
+        <v>0.02013871448798886</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07602398900287989</v>
+        <v>0.07707440343121207</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -4294,19 +4294,19 @@
         <v>34382</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23896</v>
+        <v>23317</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47971</v>
+        <v>47268</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04049492683164</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02814403542118097</v>
+        <v>0.02746286021063386</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05650034889001579</v>
+        <v>0.05567218289187773</v>
       </c>
     </row>
     <row r="26">
@@ -4323,19 +4323,19 @@
         <v>15036</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8181</v>
+        <v>8422</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24311</v>
+        <v>24208</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02460464719373413</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01338682772152175</v>
+        <v>0.01378169562530552</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03978164301280034</v>
+        <v>0.03961262009515738</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -4344,19 +4344,19 @@
         <v>2952</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7876</v>
+        <v>8554</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01240714403819</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003913665854314556</v>
+        <v>0.003940778338591195</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03310147961271302</v>
+        <v>0.03595178866183529</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -4365,19 +4365,19 @@
         <v>17988</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10766</v>
+        <v>11355</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29066</v>
+        <v>28604</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02118643942268998</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0126801072154673</v>
+        <v>0.01337363654235182</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03423417896895994</v>
+        <v>0.03368904420274831</v>
       </c>
     </row>
     <row r="27">
@@ -4394,19 +4394,19 @@
         <v>393736</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>368270</v>
+        <v>368374</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>417181</v>
+        <v>418095</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6442946868821999</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.602624421515691</v>
+        <v>0.6027936087719732</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6826598673256855</v>
+        <v>0.6841552642372618</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>131</v>
@@ -4415,19 +4415,19 @@
         <v>132421</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>116397</v>
+        <v>116502</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>146734</v>
+        <v>147292</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5565437356532499</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4891951903136465</v>
+        <v>0.4896382525563983</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6166962546799628</v>
+        <v>0.6190421380786491</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>493</v>
@@ -4436,19 +4436,19 @@
         <v>526157</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>496630</v>
+        <v>496723</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>554090</v>
+        <v>554121</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6197035078857857</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5849270029504277</v>
+        <v>0.585036925113774</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6526028133892374</v>
+        <v>0.6526394557340622</v>
       </c>
     </row>
     <row r="28">
